--- a/Final_Results.xlsx
+++ b/Final_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\natega\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744CEFDA-DA0E-4F8D-AC1A-6FBD61E49906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B063160E-D3AB-4FB0-9644-B5D900FCF7CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="629" activeTab="1" xr2:uid="{EAC7F26A-24AC-4EBF-B65D-0FE431110D14}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="270">
   <si>
     <t>غير مقرر</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>متوسط المجاميع</t>
+  </si>
+  <si>
+    <t>تتقرير عن نتيجة الدور الأول للصف الثالث الثانوي لمدرسة الشهيد محمد محمد عبدالعزيز صالح بابوبدوى 2023</t>
   </si>
 </sst>
 </file>
@@ -6766,7 +6769,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W5" sqref="W5"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6864,7 +6867,7 @@
         <v>145</v>
       </c>
       <c r="D2" s="31" t="str">
-        <f t="shared" ref="D2:D65" si="0">IF(AND(K2="غير مقرر",P2="غير مقرر"),"عملي رياضة",IF(AND(S2="غير مقرر",K2="غير مقرر"),"عملي علوم","أدبي"))</f>
+        <f>IF(AND(K2="غير مقرر",P2="غير مقرر"),"عملي رياضة",IF(AND(S2="غير مقرر",K2="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E2" s="30">
@@ -6928,7 +6931,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K3="غير مقرر",P3="غير مقرر"),"عملي رياضة",IF(AND(S3="غير مقرر",K3="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E3" s="30">
@@ -6992,7 +6995,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K4="غير مقرر",P4="غير مقرر"),"عملي رياضة",IF(AND(S4="غير مقرر",K4="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E4" s="30">
@@ -7056,7 +7059,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K5="غير مقرر",P5="غير مقرر"),"عملي رياضة",IF(AND(S5="غير مقرر",K5="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E5" s="30">
@@ -7120,7 +7123,7 @@
         <v>23</v>
       </c>
       <c r="D6" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K6="غير مقرر",P6="غير مقرر"),"عملي رياضة",IF(AND(S6="غير مقرر",K6="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E6" s="30">
@@ -7184,7 +7187,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K7="غير مقرر",P7="غير مقرر"),"عملي رياضة",IF(AND(S7="غير مقرر",K7="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E7" s="30">
@@ -7248,7 +7251,7 @@
         <v>25</v>
       </c>
       <c r="D8" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K8="غير مقرر",P8="غير مقرر"),"عملي رياضة",IF(AND(S8="غير مقرر",K8="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E8" s="30">
@@ -7312,7 +7315,7 @@
         <v>26</v>
       </c>
       <c r="D9" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K9="غير مقرر",P9="غير مقرر"),"عملي رياضة",IF(AND(S9="غير مقرر",K9="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E9" s="30">
@@ -7376,7 +7379,7 @@
         <v>146</v>
       </c>
       <c r="D10" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K10="غير مقرر",P10="غير مقرر"),"عملي رياضة",IF(AND(S10="غير مقرر",K10="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E10" s="30">
@@ -7440,7 +7443,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K11="غير مقرر",P11="غير مقرر"),"عملي رياضة",IF(AND(S11="غير مقرر",K11="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E11" s="30">
@@ -7504,7 +7507,7 @@
         <v>147</v>
       </c>
       <c r="D12" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K12="غير مقرر",P12="غير مقرر"),"عملي رياضة",IF(AND(S12="غير مقرر",K12="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E12" s="30">
@@ -7568,7 +7571,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K13="غير مقرر",P13="غير مقرر"),"عملي رياضة",IF(AND(S13="غير مقرر",K13="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E13" s="30">
@@ -7632,7 +7635,7 @@
         <v>148</v>
       </c>
       <c r="D14" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K14="غير مقرر",P14="غير مقرر"),"عملي رياضة",IF(AND(S14="غير مقرر",K14="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E14" s="30">
@@ -7696,7 +7699,7 @@
         <v>149</v>
       </c>
       <c r="D15" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K15="غير مقرر",P15="غير مقرر"),"عملي رياضة",IF(AND(S15="غير مقرر",K15="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E15" s="30">
@@ -7760,7 +7763,7 @@
         <v>150</v>
       </c>
       <c r="D16" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K16="غير مقرر",P16="غير مقرر"),"عملي رياضة",IF(AND(S16="غير مقرر",K16="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E16" s="30">
@@ -7824,7 +7827,7 @@
         <v>151</v>
       </c>
       <c r="D17" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K17="غير مقرر",P17="غير مقرر"),"عملي رياضة",IF(AND(S17="غير مقرر",K17="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E17" s="30">
@@ -7888,7 +7891,7 @@
         <v>152</v>
       </c>
       <c r="D18" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K18="غير مقرر",P18="غير مقرر"),"عملي رياضة",IF(AND(S18="غير مقرر",K18="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E18" s="30">
@@ -7952,7 +7955,7 @@
         <v>29</v>
       </c>
       <c r="D19" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K19="غير مقرر",P19="غير مقرر"),"عملي رياضة",IF(AND(S19="غير مقرر",K19="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E19" s="30">
@@ -8016,7 +8019,7 @@
         <v>153</v>
       </c>
       <c r="D20" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K20="غير مقرر",P20="غير مقرر"),"عملي رياضة",IF(AND(S20="غير مقرر",K20="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E20" s="30">
@@ -8080,7 +8083,7 @@
         <v>30</v>
       </c>
       <c r="D21" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K21="غير مقرر",P21="غير مقرر"),"عملي رياضة",IF(AND(S21="غير مقرر",K21="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E21" s="30">
@@ -8144,7 +8147,7 @@
         <v>31</v>
       </c>
       <c r="D22" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K22="غير مقرر",P22="غير مقرر"),"عملي رياضة",IF(AND(S22="غير مقرر",K22="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E22" s="30">
@@ -8208,7 +8211,7 @@
         <v>154</v>
       </c>
       <c r="D23" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K23="غير مقرر",P23="غير مقرر"),"عملي رياضة",IF(AND(S23="غير مقرر",K23="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E23" s="30">
@@ -8272,7 +8275,7 @@
         <v>32</v>
       </c>
       <c r="D24" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K24="غير مقرر",P24="غير مقرر"),"عملي رياضة",IF(AND(S24="غير مقرر",K24="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E24" s="30">
@@ -8336,7 +8339,7 @@
         <v>33</v>
       </c>
       <c r="D25" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K25="غير مقرر",P25="غير مقرر"),"عملي رياضة",IF(AND(S25="غير مقرر",K25="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E25" s="30">
@@ -8400,7 +8403,7 @@
         <v>155</v>
       </c>
       <c r="D26" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K26="غير مقرر",P26="غير مقرر"),"عملي رياضة",IF(AND(S26="غير مقرر",K26="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E26" s="30">
@@ -8464,7 +8467,7 @@
         <v>156</v>
       </c>
       <c r="D27" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K27="غير مقرر",P27="غير مقرر"),"عملي رياضة",IF(AND(S27="غير مقرر",K27="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E27" s="30">
@@ -8528,7 +8531,7 @@
         <v>157</v>
       </c>
       <c r="D28" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K28="غير مقرر",P28="غير مقرر"),"عملي رياضة",IF(AND(S28="غير مقرر",K28="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E28" s="30">
@@ -8592,7 +8595,7 @@
         <v>34</v>
       </c>
       <c r="D29" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K29="غير مقرر",P29="غير مقرر"),"عملي رياضة",IF(AND(S29="غير مقرر",K29="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E29" s="30">
@@ -8656,7 +8659,7 @@
         <v>158</v>
       </c>
       <c r="D30" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K30="غير مقرر",P30="غير مقرر"),"عملي رياضة",IF(AND(S30="غير مقرر",K30="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E30" s="30">
@@ -8720,7 +8723,7 @@
         <v>35</v>
       </c>
       <c r="D31" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K31="غير مقرر",P31="غير مقرر"),"عملي رياضة",IF(AND(S31="غير مقرر",K31="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E31" s="30">
@@ -8784,7 +8787,7 @@
         <v>159</v>
       </c>
       <c r="D32" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K32="غير مقرر",P32="غير مقرر"),"عملي رياضة",IF(AND(S32="غير مقرر",K32="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E32" s="30">
@@ -8848,7 +8851,7 @@
         <v>160</v>
       </c>
       <c r="D33" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K33="غير مقرر",P33="غير مقرر"),"عملي رياضة",IF(AND(S33="غير مقرر",K33="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E33" s="30">
@@ -8912,7 +8915,7 @@
         <v>161</v>
       </c>
       <c r="D34" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K34="غير مقرر",P34="غير مقرر"),"عملي رياضة",IF(AND(S34="غير مقرر",K34="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E34" s="30">
@@ -8976,7 +8979,7 @@
         <v>36</v>
       </c>
       <c r="D35" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K35="غير مقرر",P35="غير مقرر"),"عملي رياضة",IF(AND(S35="غير مقرر",K35="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E35" s="30">
@@ -9040,7 +9043,7 @@
         <v>37</v>
       </c>
       <c r="D36" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K36="غير مقرر",P36="غير مقرر"),"عملي رياضة",IF(AND(S36="غير مقرر",K36="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E36" s="30">
@@ -9104,7 +9107,7 @@
         <v>162</v>
       </c>
       <c r="D37" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K37="غير مقرر",P37="غير مقرر"),"عملي رياضة",IF(AND(S37="غير مقرر",K37="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E37" s="30">
@@ -9168,7 +9171,7 @@
         <v>163</v>
       </c>
       <c r="D38" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K38="غير مقرر",P38="غير مقرر"),"عملي رياضة",IF(AND(S38="غير مقرر",K38="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E38" s="30">
@@ -9232,7 +9235,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K39="غير مقرر",P39="غير مقرر"),"عملي رياضة",IF(AND(S39="غير مقرر",K39="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E39" s="30">
@@ -9296,7 +9299,7 @@
         <v>164</v>
       </c>
       <c r="D40" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K40="غير مقرر",P40="غير مقرر"),"عملي رياضة",IF(AND(S40="غير مقرر",K40="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E40" s="30">
@@ -9360,7 +9363,7 @@
         <v>39</v>
       </c>
       <c r="D41" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K41="غير مقرر",P41="غير مقرر"),"عملي رياضة",IF(AND(S41="غير مقرر",K41="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E41" s="30">
@@ -9424,7 +9427,7 @@
         <v>165</v>
       </c>
       <c r="D42" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K42="غير مقرر",P42="غير مقرر"),"عملي رياضة",IF(AND(S42="غير مقرر",K42="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E42" s="30">
@@ -9488,7 +9491,7 @@
         <v>166</v>
       </c>
       <c r="D43" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K43="غير مقرر",P43="غير مقرر"),"عملي رياضة",IF(AND(S43="غير مقرر",K43="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E43" s="30">
@@ -9552,7 +9555,7 @@
         <v>167</v>
       </c>
       <c r="D44" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K44="غير مقرر",P44="غير مقرر"),"عملي رياضة",IF(AND(S44="غير مقرر",K44="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E44" s="30">
@@ -9616,7 +9619,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K45="غير مقرر",P45="غير مقرر"),"عملي رياضة",IF(AND(S45="غير مقرر",K45="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E45" s="30">
@@ -9680,7 +9683,7 @@
         <v>168</v>
       </c>
       <c r="D46" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K46="غير مقرر",P46="غير مقرر"),"عملي رياضة",IF(AND(S46="غير مقرر",K46="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E46" s="30">
@@ -9744,7 +9747,7 @@
         <v>41</v>
       </c>
       <c r="D47" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K47="غير مقرر",P47="غير مقرر"),"عملي رياضة",IF(AND(S47="غير مقرر",K47="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E47" s="30">
@@ -9808,7 +9811,7 @@
         <v>42</v>
       </c>
       <c r="D48" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K48="غير مقرر",P48="غير مقرر"),"عملي رياضة",IF(AND(S48="غير مقرر",K48="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E48" s="30">
@@ -9872,7 +9875,7 @@
         <v>43</v>
       </c>
       <c r="D49" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K49="غير مقرر",P49="غير مقرر"),"عملي رياضة",IF(AND(S49="غير مقرر",K49="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E49" s="30">
@@ -9936,7 +9939,7 @@
         <v>44</v>
       </c>
       <c r="D50" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K50="غير مقرر",P50="غير مقرر"),"عملي رياضة",IF(AND(S50="غير مقرر",K50="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E50" s="30">
@@ -10000,7 +10003,7 @@
         <v>169</v>
       </c>
       <c r="D51" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K51="غير مقرر",P51="غير مقرر"),"عملي رياضة",IF(AND(S51="غير مقرر",K51="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E51" s="30">
@@ -10064,7 +10067,7 @@
         <v>170</v>
       </c>
       <c r="D52" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K52="غير مقرر",P52="غير مقرر"),"عملي رياضة",IF(AND(S52="غير مقرر",K52="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E52" s="30">
@@ -10128,7 +10131,7 @@
         <v>171</v>
       </c>
       <c r="D53" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K53="غير مقرر",P53="غير مقرر"),"عملي رياضة",IF(AND(S53="غير مقرر",K53="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E53" s="30">
@@ -10192,7 +10195,7 @@
         <v>45</v>
       </c>
       <c r="D54" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K54="غير مقرر",P54="غير مقرر"),"عملي رياضة",IF(AND(S54="غير مقرر",K54="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E54" s="30">
@@ -10256,7 +10259,7 @@
         <v>172</v>
       </c>
       <c r="D55" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K55="غير مقرر",P55="غير مقرر"),"عملي رياضة",IF(AND(S55="غير مقرر",K55="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E55" s="30">
@@ -10320,7 +10323,7 @@
         <v>173</v>
       </c>
       <c r="D56" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K56="غير مقرر",P56="غير مقرر"),"عملي رياضة",IF(AND(S56="غير مقرر",K56="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E56" s="30">
@@ -10384,7 +10387,7 @@
         <v>174</v>
       </c>
       <c r="D57" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K57="غير مقرر",P57="غير مقرر"),"عملي رياضة",IF(AND(S57="غير مقرر",K57="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E57" s="30">
@@ -10448,7 +10451,7 @@
         <v>46</v>
       </c>
       <c r="D58" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K58="غير مقرر",P58="غير مقرر"),"عملي رياضة",IF(AND(S58="غير مقرر",K58="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E58" s="30">
@@ -10512,7 +10515,7 @@
         <v>47</v>
       </c>
       <c r="D59" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K59="غير مقرر",P59="غير مقرر"),"عملي رياضة",IF(AND(S59="غير مقرر",K59="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E59" s="30">
@@ -10576,7 +10579,7 @@
         <v>175</v>
       </c>
       <c r="D60" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K60="غير مقرر",P60="غير مقرر"),"عملي رياضة",IF(AND(S60="غير مقرر",K60="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E60" s="30">
@@ -10640,7 +10643,7 @@
         <v>176</v>
       </c>
       <c r="D61" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K61="غير مقرر",P61="غير مقرر"),"عملي رياضة",IF(AND(S61="غير مقرر",K61="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E61" s="30">
@@ -10704,7 +10707,7 @@
         <v>177</v>
       </c>
       <c r="D62" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K62="غير مقرر",P62="غير مقرر"),"عملي رياضة",IF(AND(S62="غير مقرر",K62="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E62" s="30">
@@ -10768,7 +10771,7 @@
         <v>48</v>
       </c>
       <c r="D63" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K63="غير مقرر",P63="غير مقرر"),"عملي رياضة",IF(AND(S63="غير مقرر",K63="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E63" s="30">
@@ -10832,7 +10835,7 @@
         <v>49</v>
       </c>
       <c r="D64" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K64="غير مقرر",P64="غير مقرر"),"عملي رياضة",IF(AND(S64="غير مقرر",K64="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E64" s="30">
@@ -10896,7 +10899,7 @@
         <v>178</v>
       </c>
       <c r="D65" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(AND(K65="غير مقرر",P65="غير مقرر"),"عملي رياضة",IF(AND(S65="غير مقرر",K65="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E65" s="30">
@@ -10960,7 +10963,7 @@
         <v>50</v>
       </c>
       <c r="D66" s="31" t="str">
-        <f t="shared" ref="D66:D129" si="1">IF(AND(K66="غير مقرر",P66="غير مقرر"),"عملي رياضة",IF(AND(S66="غير مقرر",K66="غير مقرر"),"عملي علوم","أدبي"))</f>
+        <f>IF(AND(K66="غير مقرر",P66="غير مقرر"),"عملي رياضة",IF(AND(S66="غير مقرر",K66="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E66" s="30">
@@ -11024,7 +11027,7 @@
         <v>51</v>
       </c>
       <c r="D67" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K67="غير مقرر",P67="غير مقرر"),"عملي رياضة",IF(AND(S67="غير مقرر",K67="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E67" s="30">
@@ -11088,7 +11091,7 @@
         <v>179</v>
       </c>
       <c r="D68" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K68="غير مقرر",P68="غير مقرر"),"عملي رياضة",IF(AND(S68="غير مقرر",K68="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E68" s="30">
@@ -11152,7 +11155,7 @@
         <v>52</v>
       </c>
       <c r="D69" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K69="غير مقرر",P69="غير مقرر"),"عملي رياضة",IF(AND(S69="غير مقرر",K69="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E69" s="30">
@@ -11216,7 +11219,7 @@
         <v>53</v>
       </c>
       <c r="D70" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K70="غير مقرر",P70="غير مقرر"),"عملي رياضة",IF(AND(S70="غير مقرر",K70="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E70" s="30">
@@ -11280,7 +11283,7 @@
         <v>54</v>
       </c>
       <c r="D71" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K71="غير مقرر",P71="غير مقرر"),"عملي رياضة",IF(AND(S71="غير مقرر",K71="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E71" s="30">
@@ -11344,7 +11347,7 @@
         <v>180</v>
       </c>
       <c r="D72" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K72="غير مقرر",P72="غير مقرر"),"عملي رياضة",IF(AND(S72="غير مقرر",K72="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E72" s="30">
@@ -11408,7 +11411,7 @@
         <v>181</v>
       </c>
       <c r="D73" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K73="غير مقرر",P73="غير مقرر"),"عملي رياضة",IF(AND(S73="غير مقرر",K73="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E73" s="30">
@@ -11472,7 +11475,7 @@
         <v>55</v>
       </c>
       <c r="D74" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K74="غير مقرر",P74="غير مقرر"),"عملي رياضة",IF(AND(S74="غير مقرر",K74="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E74" s="30">
@@ -11536,7 +11539,7 @@
         <v>56</v>
       </c>
       <c r="D75" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K75="غير مقرر",P75="غير مقرر"),"عملي رياضة",IF(AND(S75="غير مقرر",K75="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E75" s="30">
@@ -11600,7 +11603,7 @@
         <v>57</v>
       </c>
       <c r="D76" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K76="غير مقرر",P76="غير مقرر"),"عملي رياضة",IF(AND(S76="غير مقرر",K76="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E76" s="30">
@@ -11664,7 +11667,7 @@
         <v>182</v>
       </c>
       <c r="D77" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K77="غير مقرر",P77="غير مقرر"),"عملي رياضة",IF(AND(S77="غير مقرر",K77="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E77" s="30">
@@ -11728,7 +11731,7 @@
         <v>183</v>
       </c>
       <c r="D78" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K78="غير مقرر",P78="غير مقرر"),"عملي رياضة",IF(AND(S78="غير مقرر",K78="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E78" s="30">
@@ -11792,7 +11795,7 @@
         <v>58</v>
       </c>
       <c r="D79" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K79="غير مقرر",P79="غير مقرر"),"عملي رياضة",IF(AND(S79="غير مقرر",K79="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E79" s="30">
@@ -11856,7 +11859,7 @@
         <v>184</v>
       </c>
       <c r="D80" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K80="غير مقرر",P80="غير مقرر"),"عملي رياضة",IF(AND(S80="غير مقرر",K80="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E80" s="30">
@@ -11920,7 +11923,7 @@
         <v>185</v>
       </c>
       <c r="D81" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K81="غير مقرر",P81="غير مقرر"),"عملي رياضة",IF(AND(S81="غير مقرر",K81="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E81" s="30">
@@ -11984,7 +11987,7 @@
         <v>186</v>
       </c>
       <c r="D82" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K82="غير مقرر",P82="غير مقرر"),"عملي رياضة",IF(AND(S82="غير مقرر",K82="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E82" s="30">
@@ -12048,7 +12051,7 @@
         <v>187</v>
       </c>
       <c r="D83" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K83="غير مقرر",P83="غير مقرر"),"عملي رياضة",IF(AND(S83="غير مقرر",K83="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E83" s="30">
@@ -12112,7 +12115,7 @@
         <v>59</v>
       </c>
       <c r="D84" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K84="غير مقرر",P84="غير مقرر"),"عملي رياضة",IF(AND(S84="غير مقرر",K84="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E84" s="30">
@@ -12176,7 +12179,7 @@
         <v>188</v>
       </c>
       <c r="D85" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K85="غير مقرر",P85="غير مقرر"),"عملي رياضة",IF(AND(S85="غير مقرر",K85="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E85" s="30">
@@ -12240,7 +12243,7 @@
         <v>189</v>
       </c>
       <c r="D86" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K86="غير مقرر",P86="غير مقرر"),"عملي رياضة",IF(AND(S86="غير مقرر",K86="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E86" s="30">
@@ -12304,7 +12307,7 @@
         <v>190</v>
       </c>
       <c r="D87" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K87="غير مقرر",P87="غير مقرر"),"عملي رياضة",IF(AND(S87="غير مقرر",K87="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E87" s="30">
@@ -12368,7 +12371,7 @@
         <v>60</v>
       </c>
       <c r="D88" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K88="غير مقرر",P88="غير مقرر"),"عملي رياضة",IF(AND(S88="غير مقرر",K88="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E88" s="30">
@@ -12432,7 +12435,7 @@
         <v>191</v>
       </c>
       <c r="D89" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K89="غير مقرر",P89="غير مقرر"),"عملي رياضة",IF(AND(S89="غير مقرر",K89="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E89" s="30">
@@ -12496,7 +12499,7 @@
         <v>61</v>
       </c>
       <c r="D90" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K90="غير مقرر",P90="غير مقرر"),"عملي رياضة",IF(AND(S90="غير مقرر",K90="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E90" s="30">
@@ -12560,7 +12563,7 @@
         <v>62</v>
       </c>
       <c r="D91" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K91="غير مقرر",P91="غير مقرر"),"عملي رياضة",IF(AND(S91="غير مقرر",K91="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E91" s="30">
@@ -12624,7 +12627,7 @@
         <v>63</v>
       </c>
       <c r="D92" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K92="غير مقرر",P92="غير مقرر"),"عملي رياضة",IF(AND(S92="غير مقرر",K92="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E92" s="30">
@@ -12688,7 +12691,7 @@
         <v>192</v>
       </c>
       <c r="D93" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K93="غير مقرر",P93="غير مقرر"),"عملي رياضة",IF(AND(S93="غير مقرر",K93="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E93" s="30">
@@ -12752,7 +12755,7 @@
         <v>64</v>
       </c>
       <c r="D94" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K94="غير مقرر",P94="غير مقرر"),"عملي رياضة",IF(AND(S94="غير مقرر",K94="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E94" s="30">
@@ -12816,7 +12819,7 @@
         <v>193</v>
       </c>
       <c r="D95" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K95="غير مقرر",P95="غير مقرر"),"عملي رياضة",IF(AND(S95="غير مقرر",K95="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E95" s="30">
@@ -12880,7 +12883,7 @@
         <v>65</v>
       </c>
       <c r="D96" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K96="غير مقرر",P96="غير مقرر"),"عملي رياضة",IF(AND(S96="غير مقرر",K96="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E96" s="30">
@@ -12944,7 +12947,7 @@
         <v>66</v>
       </c>
       <c r="D97" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K97="غير مقرر",P97="غير مقرر"),"عملي رياضة",IF(AND(S97="غير مقرر",K97="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E97" s="30">
@@ -13008,7 +13011,7 @@
         <v>67</v>
       </c>
       <c r="D98" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K98="غير مقرر",P98="غير مقرر"),"عملي رياضة",IF(AND(S98="غير مقرر",K98="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E98" s="30">
@@ -13072,7 +13075,7 @@
         <v>194</v>
       </c>
       <c r="D99" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K99="غير مقرر",P99="غير مقرر"),"عملي رياضة",IF(AND(S99="غير مقرر",K99="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E99" s="30">
@@ -13136,7 +13139,7 @@
         <v>68</v>
       </c>
       <c r="D100" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K100="غير مقرر",P100="غير مقرر"),"عملي رياضة",IF(AND(S100="غير مقرر",K100="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E100" s="30">
@@ -13200,7 +13203,7 @@
         <v>195</v>
       </c>
       <c r="D101" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K101="غير مقرر",P101="غير مقرر"),"عملي رياضة",IF(AND(S101="غير مقرر",K101="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E101" s="30">
@@ -13264,7 +13267,7 @@
         <v>196</v>
       </c>
       <c r="D102" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K102="غير مقرر",P102="غير مقرر"),"عملي رياضة",IF(AND(S102="غير مقرر",K102="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E102" s="30">
@@ -13328,7 +13331,7 @@
         <v>197</v>
       </c>
       <c r="D103" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K103="غير مقرر",P103="غير مقرر"),"عملي رياضة",IF(AND(S103="غير مقرر",K103="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E103" s="30">
@@ -13392,7 +13395,7 @@
         <v>198</v>
       </c>
       <c r="D104" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K104="غير مقرر",P104="غير مقرر"),"عملي رياضة",IF(AND(S104="غير مقرر",K104="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E104" s="30">
@@ -13456,7 +13459,7 @@
         <v>69</v>
       </c>
       <c r="D105" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K105="غير مقرر",P105="غير مقرر"),"عملي رياضة",IF(AND(S105="غير مقرر",K105="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E105" s="30">
@@ -13520,7 +13523,7 @@
         <v>70</v>
       </c>
       <c r="D106" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K106="غير مقرر",P106="غير مقرر"),"عملي رياضة",IF(AND(S106="غير مقرر",K106="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E106" s="30">
@@ -13584,7 +13587,7 @@
         <v>71</v>
       </c>
       <c r="D107" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K107="غير مقرر",P107="غير مقرر"),"عملي رياضة",IF(AND(S107="غير مقرر",K107="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E107" s="30">
@@ -13648,7 +13651,7 @@
         <v>199</v>
       </c>
       <c r="D108" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K108="غير مقرر",P108="غير مقرر"),"عملي رياضة",IF(AND(S108="غير مقرر",K108="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E108" s="30">
@@ -13712,7 +13715,7 @@
         <v>200</v>
       </c>
       <c r="D109" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K109="غير مقرر",P109="غير مقرر"),"عملي رياضة",IF(AND(S109="غير مقرر",K109="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E109" s="30">
@@ -13776,7 +13779,7 @@
         <v>201</v>
       </c>
       <c r="D110" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K110="غير مقرر",P110="غير مقرر"),"عملي رياضة",IF(AND(S110="غير مقرر",K110="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E110" s="30">
@@ -13840,7 +13843,7 @@
         <v>72</v>
       </c>
       <c r="D111" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K111="غير مقرر",P111="غير مقرر"),"عملي رياضة",IF(AND(S111="غير مقرر",K111="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E111" s="30">
@@ -13904,7 +13907,7 @@
         <v>73</v>
       </c>
       <c r="D112" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K112="غير مقرر",P112="غير مقرر"),"عملي رياضة",IF(AND(S112="غير مقرر",K112="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E112" s="30">
@@ -13968,7 +13971,7 @@
         <v>202</v>
       </c>
       <c r="D113" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K113="غير مقرر",P113="غير مقرر"),"عملي رياضة",IF(AND(S113="غير مقرر",K113="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E113" s="30">
@@ -14032,7 +14035,7 @@
         <v>203</v>
       </c>
       <c r="D114" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K114="غير مقرر",P114="غير مقرر"),"عملي رياضة",IF(AND(S114="غير مقرر",K114="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E114" s="30">
@@ -14096,7 +14099,7 @@
         <v>204</v>
       </c>
       <c r="D115" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K115="غير مقرر",P115="غير مقرر"),"عملي رياضة",IF(AND(S115="غير مقرر",K115="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E115" s="30">
@@ -14160,7 +14163,7 @@
         <v>75</v>
       </c>
       <c r="D116" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K116="غير مقرر",P116="غير مقرر"),"عملي رياضة",IF(AND(S116="غير مقرر",K116="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E116" s="30">
@@ -14224,7 +14227,7 @@
         <v>76</v>
       </c>
       <c r="D117" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K117="غير مقرر",P117="غير مقرر"),"عملي رياضة",IF(AND(S117="غير مقرر",K117="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E117" s="30">
@@ -14288,7 +14291,7 @@
         <v>205</v>
       </c>
       <c r="D118" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K118="غير مقرر",P118="غير مقرر"),"عملي رياضة",IF(AND(S118="غير مقرر",K118="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E118" s="30">
@@ -14352,7 +14355,7 @@
         <v>77</v>
       </c>
       <c r="D119" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K119="غير مقرر",P119="غير مقرر"),"عملي رياضة",IF(AND(S119="غير مقرر",K119="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E119" s="30">
@@ -14416,7 +14419,7 @@
         <v>78</v>
       </c>
       <c r="D120" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K120="غير مقرر",P120="غير مقرر"),"عملي رياضة",IF(AND(S120="غير مقرر",K120="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E120" s="30">
@@ -14480,7 +14483,7 @@
         <v>79</v>
       </c>
       <c r="D121" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K121="غير مقرر",P121="غير مقرر"),"عملي رياضة",IF(AND(S121="غير مقرر",K121="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E121" s="30">
@@ -14544,7 +14547,7 @@
         <v>206</v>
       </c>
       <c r="D122" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K122="غير مقرر",P122="غير مقرر"),"عملي رياضة",IF(AND(S122="غير مقرر",K122="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E122" s="30">
@@ -14608,7 +14611,7 @@
         <v>207</v>
       </c>
       <c r="D123" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K123="غير مقرر",P123="غير مقرر"),"عملي رياضة",IF(AND(S123="غير مقرر",K123="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E123" s="30">
@@ -14672,7 +14675,7 @@
         <v>80</v>
       </c>
       <c r="D124" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K124="غير مقرر",P124="غير مقرر"),"عملي رياضة",IF(AND(S124="غير مقرر",K124="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E124" s="30">
@@ -14736,7 +14739,7 @@
         <v>81</v>
       </c>
       <c r="D125" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K125="غير مقرر",P125="غير مقرر"),"عملي رياضة",IF(AND(S125="غير مقرر",K125="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E125" s="30">
@@ -14800,7 +14803,7 @@
         <v>82</v>
       </c>
       <c r="D126" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K126="غير مقرر",P126="غير مقرر"),"عملي رياضة",IF(AND(S126="غير مقرر",K126="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E126" s="30">
@@ -14864,7 +14867,7 @@
         <v>83</v>
       </c>
       <c r="D127" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K127="غير مقرر",P127="غير مقرر"),"عملي رياضة",IF(AND(S127="غير مقرر",K127="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E127" s="30">
@@ -14928,7 +14931,7 @@
         <v>208</v>
       </c>
       <c r="D128" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K128="غير مقرر",P128="غير مقرر"),"عملي رياضة",IF(AND(S128="غير مقرر",K128="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E128" s="30">
@@ -14992,7 +14995,7 @@
         <v>209</v>
       </c>
       <c r="D129" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(AND(K129="غير مقرر",P129="غير مقرر"),"عملي رياضة",IF(AND(S129="غير مقرر",K129="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E129" s="30">
@@ -15056,7 +15059,7 @@
         <v>84</v>
       </c>
       <c r="D130" s="31" t="str">
-        <f t="shared" ref="D130:D193" si="2">IF(AND(K130="غير مقرر",P130="غير مقرر"),"عملي رياضة",IF(AND(S130="غير مقرر",K130="غير مقرر"),"عملي علوم","أدبي"))</f>
+        <f>IF(AND(K130="غير مقرر",P130="غير مقرر"),"عملي رياضة",IF(AND(S130="غير مقرر",K130="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E130" s="30">
@@ -15120,7 +15123,7 @@
         <v>85</v>
       </c>
       <c r="D131" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K131="غير مقرر",P131="غير مقرر"),"عملي رياضة",IF(AND(S131="غير مقرر",K131="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E131" s="30">
@@ -15184,7 +15187,7 @@
         <v>210</v>
       </c>
       <c r="D132" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K132="غير مقرر",P132="غير مقرر"),"عملي رياضة",IF(AND(S132="غير مقرر",K132="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E132" s="30">
@@ -15248,7 +15251,7 @@
         <v>86</v>
       </c>
       <c r="D133" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K133="غير مقرر",P133="غير مقرر"),"عملي رياضة",IF(AND(S133="غير مقرر",K133="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E133" s="30">
@@ -15312,7 +15315,7 @@
         <v>87</v>
       </c>
       <c r="D134" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K134="غير مقرر",P134="غير مقرر"),"عملي رياضة",IF(AND(S134="غير مقرر",K134="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E134" s="30">
@@ -15376,7 +15379,7 @@
         <v>211</v>
       </c>
       <c r="D135" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K135="غير مقرر",P135="غير مقرر"),"عملي رياضة",IF(AND(S135="غير مقرر",K135="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E135" s="30">
@@ -15440,7 +15443,7 @@
         <v>88</v>
       </c>
       <c r="D136" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K136="غير مقرر",P136="غير مقرر"),"عملي رياضة",IF(AND(S136="غير مقرر",K136="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E136" s="30">
@@ -15504,7 +15507,7 @@
         <v>212</v>
       </c>
       <c r="D137" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K137="غير مقرر",P137="غير مقرر"),"عملي رياضة",IF(AND(S137="غير مقرر",K137="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E137" s="30">
@@ -15568,7 +15571,7 @@
         <v>89</v>
       </c>
       <c r="D138" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K138="غير مقرر",P138="غير مقرر"),"عملي رياضة",IF(AND(S138="غير مقرر",K138="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E138" s="30">
@@ -15632,7 +15635,7 @@
         <v>90</v>
       </c>
       <c r="D139" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K139="غير مقرر",P139="غير مقرر"),"عملي رياضة",IF(AND(S139="غير مقرر",K139="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E139" s="30">
@@ -15696,7 +15699,7 @@
         <v>213</v>
       </c>
       <c r="D140" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K140="غير مقرر",P140="غير مقرر"),"عملي رياضة",IF(AND(S140="غير مقرر",K140="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E140" s="30">
@@ -15760,7 +15763,7 @@
         <v>91</v>
       </c>
       <c r="D141" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K141="غير مقرر",P141="غير مقرر"),"عملي رياضة",IF(AND(S141="غير مقرر",K141="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E141" s="30">
@@ -15824,7 +15827,7 @@
         <v>92</v>
       </c>
       <c r="D142" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K142="غير مقرر",P142="غير مقرر"),"عملي رياضة",IF(AND(S142="غير مقرر",K142="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E142" s="30">
@@ -15888,7 +15891,7 @@
         <v>93</v>
       </c>
       <c r="D143" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K143="غير مقرر",P143="غير مقرر"),"عملي رياضة",IF(AND(S143="غير مقرر",K143="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E143" s="30">
@@ -15952,7 +15955,7 @@
         <v>214</v>
       </c>
       <c r="D144" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K144="غير مقرر",P144="غير مقرر"),"عملي رياضة",IF(AND(S144="غير مقرر",K144="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E144" s="30">
@@ -16016,7 +16019,7 @@
         <v>215</v>
       </c>
       <c r="D145" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K145="غير مقرر",P145="غير مقرر"),"عملي رياضة",IF(AND(S145="غير مقرر",K145="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E145" s="30">
@@ -16080,7 +16083,7 @@
         <v>94</v>
       </c>
       <c r="D146" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K146="غير مقرر",P146="غير مقرر"),"عملي رياضة",IF(AND(S146="غير مقرر",K146="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E146" s="30">
@@ -16144,7 +16147,7 @@
         <v>140</v>
       </c>
       <c r="D147" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K147="غير مقرر",P147="غير مقرر"),"عملي رياضة",IF(AND(S147="غير مقرر",K147="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E147" s="30">
@@ -16208,7 +16211,7 @@
         <v>216</v>
       </c>
       <c r="D148" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K148="غير مقرر",P148="غير مقرر"),"عملي رياضة",IF(AND(S148="غير مقرر",K148="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E148" s="30">
@@ -16272,7 +16275,7 @@
         <v>95</v>
       </c>
       <c r="D149" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K149="غير مقرر",P149="غير مقرر"),"عملي رياضة",IF(AND(S149="غير مقرر",K149="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E149" s="30">
@@ -16336,7 +16339,7 @@
         <v>217</v>
       </c>
       <c r="D150" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K150="غير مقرر",P150="غير مقرر"),"عملي رياضة",IF(AND(S150="غير مقرر",K150="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E150" s="30">
@@ -16400,7 +16403,7 @@
         <v>97</v>
       </c>
       <c r="D151" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K151="غير مقرر",P151="غير مقرر"),"عملي رياضة",IF(AND(S151="غير مقرر",K151="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E151" s="30">
@@ -16464,7 +16467,7 @@
         <v>98</v>
       </c>
       <c r="D152" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K152="غير مقرر",P152="غير مقرر"),"عملي رياضة",IF(AND(S152="غير مقرر",K152="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E152" s="30">
@@ -16528,7 +16531,7 @@
         <v>96</v>
       </c>
       <c r="D153" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K153="غير مقرر",P153="غير مقرر"),"عملي رياضة",IF(AND(S153="غير مقرر",K153="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E153" s="30">
@@ -16592,7 +16595,7 @@
         <v>99</v>
       </c>
       <c r="D154" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K154="غير مقرر",P154="غير مقرر"),"عملي رياضة",IF(AND(S154="غير مقرر",K154="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E154" s="30">
@@ -16656,7 +16659,7 @@
         <v>218</v>
       </c>
       <c r="D155" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K155="غير مقرر",P155="غير مقرر"),"عملي رياضة",IF(AND(S155="غير مقرر",K155="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E155" s="30">
@@ -16720,7 +16723,7 @@
         <v>219</v>
       </c>
       <c r="D156" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K156="غير مقرر",P156="غير مقرر"),"عملي رياضة",IF(AND(S156="غير مقرر",K156="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E156" s="30">
@@ -16784,7 +16787,7 @@
         <v>100</v>
       </c>
       <c r="D157" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K157="غير مقرر",P157="غير مقرر"),"عملي رياضة",IF(AND(S157="غير مقرر",K157="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E157" s="30">
@@ -16848,7 +16851,7 @@
         <v>220</v>
       </c>
       <c r="D158" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K158="غير مقرر",P158="غير مقرر"),"عملي رياضة",IF(AND(S158="غير مقرر",K158="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E158" s="30">
@@ -16912,7 +16915,7 @@
         <v>102</v>
       </c>
       <c r="D159" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K159="غير مقرر",P159="غير مقرر"),"عملي رياضة",IF(AND(S159="غير مقرر",K159="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E159" s="30">
@@ -16976,7 +16979,7 @@
         <v>221</v>
       </c>
       <c r="D160" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K160="غير مقرر",P160="غير مقرر"),"عملي رياضة",IF(AND(S160="غير مقرر",K160="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E160" s="30">
@@ -17040,7 +17043,7 @@
         <v>101</v>
       </c>
       <c r="D161" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K161="غير مقرر",P161="غير مقرر"),"عملي رياضة",IF(AND(S161="غير مقرر",K161="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E161" s="30">
@@ -17104,7 +17107,7 @@
         <v>103</v>
       </c>
       <c r="D162" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K162="غير مقرر",P162="غير مقرر"),"عملي رياضة",IF(AND(S162="غير مقرر",K162="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E162" s="30">
@@ -17168,7 +17171,7 @@
         <v>104</v>
       </c>
       <c r="D163" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K163="غير مقرر",P163="غير مقرر"),"عملي رياضة",IF(AND(S163="غير مقرر",K163="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E163" s="30">
@@ -17232,7 +17235,7 @@
         <v>105</v>
       </c>
       <c r="D164" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K164="غير مقرر",P164="غير مقرر"),"عملي رياضة",IF(AND(S164="غير مقرر",K164="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E164" s="30">
@@ -17296,7 +17299,7 @@
         <v>222</v>
       </c>
       <c r="D165" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K165="غير مقرر",P165="غير مقرر"),"عملي رياضة",IF(AND(S165="غير مقرر",K165="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E165" s="30">
@@ -17360,7 +17363,7 @@
         <v>107</v>
       </c>
       <c r="D166" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K166="غير مقرر",P166="غير مقرر"),"عملي رياضة",IF(AND(S166="غير مقرر",K166="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E166" s="30">
@@ -17424,7 +17427,7 @@
         <v>108</v>
       </c>
       <c r="D167" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K167="غير مقرر",P167="غير مقرر"),"عملي رياضة",IF(AND(S167="غير مقرر",K167="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E167" s="30">
@@ -17488,7 +17491,7 @@
         <v>223</v>
       </c>
       <c r="D168" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K168="غير مقرر",P168="غير مقرر"),"عملي رياضة",IF(AND(S168="غير مقرر",K168="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E168" s="30">
@@ -17552,7 +17555,7 @@
         <v>109</v>
       </c>
       <c r="D169" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K169="غير مقرر",P169="غير مقرر"),"عملي رياضة",IF(AND(S169="غير مقرر",K169="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E169" s="30">
@@ -17616,7 +17619,7 @@
         <v>110</v>
       </c>
       <c r="D170" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K170="غير مقرر",P170="غير مقرر"),"عملي رياضة",IF(AND(S170="غير مقرر",K170="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E170" s="30">
@@ -17680,7 +17683,7 @@
         <v>111</v>
       </c>
       <c r="D171" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K171="غير مقرر",P171="غير مقرر"),"عملي رياضة",IF(AND(S171="غير مقرر",K171="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E171" s="30">
@@ -17744,7 +17747,7 @@
         <v>224</v>
       </c>
       <c r="D172" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K172="غير مقرر",P172="غير مقرر"),"عملي رياضة",IF(AND(S172="غير مقرر",K172="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E172" s="30">
@@ -17808,7 +17811,7 @@
         <v>106</v>
       </c>
       <c r="D173" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K173="غير مقرر",P173="غير مقرر"),"عملي رياضة",IF(AND(S173="غير مقرر",K173="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E173" s="30">
@@ -17872,7 +17875,7 @@
         <v>112</v>
       </c>
       <c r="D174" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K174="غير مقرر",P174="غير مقرر"),"عملي رياضة",IF(AND(S174="غير مقرر",K174="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E174" s="30">
@@ -17936,7 +17939,7 @@
         <v>225</v>
       </c>
       <c r="D175" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K175="غير مقرر",P175="غير مقرر"),"عملي رياضة",IF(AND(S175="غير مقرر",K175="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E175" s="30">
@@ -18000,7 +18003,7 @@
         <v>226</v>
       </c>
       <c r="D176" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K176="غير مقرر",P176="غير مقرر"),"عملي رياضة",IF(AND(S176="غير مقرر",K176="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E176" s="30">
@@ -18064,7 +18067,7 @@
         <v>113</v>
       </c>
       <c r="D177" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K177="غير مقرر",P177="غير مقرر"),"عملي رياضة",IF(AND(S177="غير مقرر",K177="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E177" s="30">
@@ -18128,7 +18131,7 @@
         <v>115</v>
       </c>
       <c r="D178" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K178="غير مقرر",P178="غير مقرر"),"عملي رياضة",IF(AND(S178="غير مقرر",K178="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E178" s="30">
@@ -18192,7 +18195,7 @@
         <v>116</v>
       </c>
       <c r="D179" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K179="غير مقرر",P179="غير مقرر"),"عملي رياضة",IF(AND(S179="غير مقرر",K179="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E179" s="30">
@@ -18256,7 +18259,7 @@
         <v>227</v>
       </c>
       <c r="D180" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K180="غير مقرر",P180="غير مقرر"),"عملي رياضة",IF(AND(S180="غير مقرر",K180="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E180" s="30">
@@ -18320,7 +18323,7 @@
         <v>114</v>
       </c>
       <c r="D181" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K181="غير مقرر",P181="غير مقرر"),"عملي رياضة",IF(AND(S181="غير مقرر",K181="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E181" s="30">
@@ -18384,7 +18387,7 @@
         <v>117</v>
       </c>
       <c r="D182" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K182="غير مقرر",P182="غير مقرر"),"عملي رياضة",IF(AND(S182="غير مقرر",K182="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E182" s="30">
@@ -18448,7 +18451,7 @@
         <v>118</v>
       </c>
       <c r="D183" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K183="غير مقرر",P183="غير مقرر"),"عملي رياضة",IF(AND(S183="غير مقرر",K183="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E183" s="30">
@@ -18512,7 +18515,7 @@
         <v>228</v>
       </c>
       <c r="D184" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K184="غير مقرر",P184="غير مقرر"),"عملي رياضة",IF(AND(S184="غير مقرر",K184="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E184" s="30">
@@ -18576,7 +18579,7 @@
         <v>120</v>
       </c>
       <c r="D185" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K185="غير مقرر",P185="غير مقرر"),"عملي رياضة",IF(AND(S185="غير مقرر",K185="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E185" s="30">
@@ -18640,7 +18643,7 @@
         <v>121</v>
       </c>
       <c r="D186" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K186="غير مقرر",P186="غير مقرر"),"عملي رياضة",IF(AND(S186="غير مقرر",K186="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E186" s="30">
@@ -18704,7 +18707,7 @@
         <v>122</v>
       </c>
       <c r="D187" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K187="غير مقرر",P187="غير مقرر"),"عملي رياضة",IF(AND(S187="غير مقرر",K187="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E187" s="30">
@@ -18768,7 +18771,7 @@
         <v>123</v>
       </c>
       <c r="D188" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K188="غير مقرر",P188="غير مقرر"),"عملي رياضة",IF(AND(S188="غير مقرر",K188="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E188" s="30">
@@ -18832,7 +18835,7 @@
         <v>119</v>
       </c>
       <c r="D189" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K189="غير مقرر",P189="غير مقرر"),"عملي رياضة",IF(AND(S189="غير مقرر",K189="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E189" s="30">
@@ -18896,7 +18899,7 @@
         <v>124</v>
       </c>
       <c r="D190" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K190="غير مقرر",P190="غير مقرر"),"عملي رياضة",IF(AND(S190="غير مقرر",K190="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E190" s="30">
@@ -18960,7 +18963,7 @@
         <v>126</v>
       </c>
       <c r="D191" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K191="غير مقرر",P191="غير مقرر"),"عملي رياضة",IF(AND(S191="غير مقرر",K191="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E191" s="30">
@@ -19024,7 +19027,7 @@
         <v>125</v>
       </c>
       <c r="D192" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K192="غير مقرر",P192="غير مقرر"),"عملي رياضة",IF(AND(S192="غير مقرر",K192="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E192" s="30">
@@ -19088,7 +19091,7 @@
         <v>128</v>
       </c>
       <c r="D193" s="31" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(AND(K193="غير مقرر",P193="غير مقرر"),"عملي رياضة",IF(AND(S193="غير مقرر",K193="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E193" s="30">
@@ -19152,7 +19155,7 @@
         <v>229</v>
       </c>
       <c r="D194" s="31" t="str">
-        <f t="shared" ref="D194:D216" si="3">IF(AND(K194="غير مقرر",P194="غير مقرر"),"عملي رياضة",IF(AND(S194="غير مقرر",K194="غير مقرر"),"عملي علوم","أدبي"))</f>
+        <f>IF(AND(K194="غير مقرر",P194="غير مقرر"),"عملي رياضة",IF(AND(S194="غير مقرر",K194="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E194" s="30">
@@ -19216,7 +19219,7 @@
         <v>230</v>
       </c>
       <c r="D195" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K195="غير مقرر",P195="غير مقرر"),"عملي رياضة",IF(AND(S195="غير مقرر",K195="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E195" s="30">
@@ -19280,7 +19283,7 @@
         <v>129</v>
       </c>
       <c r="D196" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K196="غير مقرر",P196="غير مقرر"),"عملي رياضة",IF(AND(S196="غير مقرر",K196="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E196" s="30">
@@ -19344,7 +19347,7 @@
         <v>130</v>
       </c>
       <c r="D197" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K197="غير مقرر",P197="غير مقرر"),"عملي رياضة",IF(AND(S197="غير مقرر",K197="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E197" s="30">
@@ -19408,7 +19411,7 @@
         <v>231</v>
       </c>
       <c r="D198" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K198="غير مقرر",P198="غير مقرر"),"عملي رياضة",IF(AND(S198="غير مقرر",K198="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E198" s="30">
@@ -19472,7 +19475,7 @@
         <v>232</v>
       </c>
       <c r="D199" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K199="غير مقرر",P199="غير مقرر"),"عملي رياضة",IF(AND(S199="غير مقرر",K199="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E199" s="30">
@@ -19536,7 +19539,7 @@
         <v>131</v>
       </c>
       <c r="D200" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K200="غير مقرر",P200="غير مقرر"),"عملي رياضة",IF(AND(S200="غير مقرر",K200="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E200" s="30">
@@ -19600,7 +19603,7 @@
         <v>132</v>
       </c>
       <c r="D201" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K201="غير مقرر",P201="غير مقرر"),"عملي رياضة",IF(AND(S201="غير مقرر",K201="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E201" s="30">
@@ -19664,7 +19667,7 @@
         <v>233</v>
       </c>
       <c r="D202" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K202="غير مقرر",P202="غير مقرر"),"عملي رياضة",IF(AND(S202="غير مقرر",K202="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E202" s="30">
@@ -19728,7 +19731,7 @@
         <v>127</v>
       </c>
       <c r="D203" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K203="غير مقرر",P203="غير مقرر"),"عملي رياضة",IF(AND(S203="غير مقرر",K203="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E203" s="30">
@@ -19792,7 +19795,7 @@
         <v>134</v>
       </c>
       <c r="D204" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K204="غير مقرر",P204="غير مقرر"),"عملي رياضة",IF(AND(S204="غير مقرر",K204="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E204" s="30">
@@ -19856,7 +19859,7 @@
         <v>135</v>
       </c>
       <c r="D205" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K205="غير مقرر",P205="غير مقرر"),"عملي رياضة",IF(AND(S205="غير مقرر",K205="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E205" s="30">
@@ -19920,7 +19923,7 @@
         <v>136</v>
       </c>
       <c r="D206" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K206="غير مقرر",P206="غير مقرر"),"عملي رياضة",IF(AND(S206="غير مقرر",K206="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E206" s="30">
@@ -19984,7 +19987,7 @@
         <v>137</v>
       </c>
       <c r="D207" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K207="غير مقرر",P207="غير مقرر"),"عملي رياضة",IF(AND(S207="غير مقرر",K207="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E207" s="30">
@@ -20048,7 +20051,7 @@
         <v>234</v>
       </c>
       <c r="D208" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K208="غير مقرر",P208="غير مقرر"),"عملي رياضة",IF(AND(S208="غير مقرر",K208="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E208" s="30">
@@ -20112,7 +20115,7 @@
         <v>138</v>
       </c>
       <c r="D209" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K209="غير مقرر",P209="غير مقرر"),"عملي رياضة",IF(AND(S209="غير مقرر",K209="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E209" s="30">
@@ -20176,7 +20179,7 @@
         <v>139</v>
       </c>
       <c r="D210" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K210="غير مقرر",P210="غير مقرر"),"عملي رياضة",IF(AND(S210="غير مقرر",K210="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E210" s="30">
@@ -20240,7 +20243,7 @@
         <v>133</v>
       </c>
       <c r="D211" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K211="غير مقرر",P211="غير مقرر"),"عملي رياضة",IF(AND(S211="غير مقرر",K211="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E211" s="30">
@@ -20304,7 +20307,7 @@
         <v>141</v>
       </c>
       <c r="D212" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K212="غير مقرر",P212="غير مقرر"),"عملي رياضة",IF(AND(S212="غير مقرر",K212="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي رياضة</v>
       </c>
       <c r="E212" s="30">
@@ -20368,7 +20371,7 @@
         <v>235</v>
       </c>
       <c r="D213" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K213="غير مقرر",P213="غير مقرر"),"عملي رياضة",IF(AND(S213="غير مقرر",K213="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E213" s="30">
@@ -20432,7 +20435,7 @@
         <v>142</v>
       </c>
       <c r="D214" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K214="غير مقرر",P214="غير مقرر"),"عملي رياضة",IF(AND(S214="غير مقرر",K214="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E214" s="30">
@@ -20496,7 +20499,7 @@
         <v>143</v>
       </c>
       <c r="D215" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K215="غير مقرر",P215="غير مقرر"),"عملي رياضة",IF(AND(S215="غير مقرر",K215="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>عملي علوم</v>
       </c>
       <c r="E215" s="30">
@@ -20560,7 +20563,7 @@
         <v>144</v>
       </c>
       <c r="D216" s="31" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(AND(K216="غير مقرر",P216="غير مقرر"),"عملي رياضة",IF(AND(S216="غير مقرر",K216="غير مقرر"),"عملي علوم","أدبي"))</f>
         <v>أدبي</v>
       </c>
       <c r="E216" s="30">
@@ -20746,8 +20749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08E8BB89-4529-4324-8840-5CFED8BCCEE9}">
   <dimension ref="C1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20765,7 +20768,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:14">
-      <c r="E1" s="35"/>
+      <c r="E1" s="35" t="s">
+        <v>269</v>
+      </c>
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
@@ -21106,7 +21111,7 @@
       <c r="E15" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="20">
         <f>F14/$E$7</f>
         <v>0.68837209302325586</v>
       </c>
@@ -21824,7 +21829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A0CDCD-D55D-440F-8DE1-FF30078AE63D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
